--- a/TP1/tablas/16.xlsx
+++ b/TP1/tablas/16.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111101110100101110111000000011</t>
+          <t>101101110001101110111011110010</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9331543194079575</v>
+        <v>0.511606782017861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01051975114916411</v>
+        <v>0.0003542962366490224</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3401825200681105</v>
+        <v>0.266808853918057</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02729694766753963</v>
+        <v>0.08205136894938046</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6517603076775123</v>
+        <v>0.4382249404700572</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9330675477277615</v>
+        <v>0.4912618390951156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9337642520010873</v>
+        <v>0.509572295186402</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E6" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E7" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E8" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E9" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E10" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E11" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E12" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E13" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E14" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E15" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E16" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E17" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E18" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E19" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E20" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111101110110010111110001100100</t>
+          <t>101101110001101110111011111010</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="E21" t="n">
-        <v>0.933927581609394</v>
+        <v>0.5116067926761689</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9339275816093939</v>
+        <v>0.5116067926761689</v>
       </c>
     </row>
   </sheetData>
